--- a/IS_2005-07_2008-07.xlsx
+++ b/IS_2005-07_2008-07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>Vol-Adj Trend Analysis</t>
   </si>
@@ -70,49 +70,22 @@
     <t>User Weight</t>
   </si>
   <si>
+    <t>Meridian Strategies</t>
+  </si>
+  <si>
     <t>Sentinel Global</t>
   </si>
   <si>
-    <t>Forge Advisors</t>
-  </si>
-  <si>
-    <t>Ascent Group</t>
-  </si>
-  <si>
-    <t>Adaptive LP</t>
+    <t>Sentinel Advisors</t>
+  </si>
+  <si>
+    <t>Vista Capital</t>
+  </si>
+  <si>
+    <t>Axiom Holdings</t>
   </si>
   <si>
     <t>Quantum Advisors</t>
-  </si>
-  <si>
-    <t>Axiom Advisors</t>
-  </si>
-  <si>
-    <t>Ascent Global</t>
-  </si>
-  <si>
-    <t>Sentinel Advisors</t>
-  </si>
-  <si>
-    <t>Echo Group</t>
-  </si>
-  <si>
-    <t>Quantum Capital</t>
-  </si>
-  <si>
-    <t>Sentinel LP</t>
-  </si>
-  <si>
-    <t>Echo Strategies</t>
-  </si>
-  <si>
-    <t>Vista Holdings</t>
-  </si>
-  <si>
-    <t>Adaptive Global</t>
-  </si>
-  <si>
-    <t>Vista Global</t>
   </si>
   <si>
     <t>EqualWeight_60</t>
@@ -481,7 +454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -560,34 +533,34 @@
         <v>16</v>
       </c>
       <c r="C6" s="3">
-        <v>1.498182020677485</v>
+        <v>3.771265572203131</v>
       </c>
       <c r="D6" s="3">
-        <v>2.159827301841561</v>
+        <v>2.85703895554428</v>
       </c>
       <c r="E6" s="3">
-        <v>0.5705774189878049</v>
+        <v>1.226945902178641</v>
       </c>
       <c r="F6" s="3">
-        <v>0.5858206695170158</v>
+        <v>1.806620019236472</v>
       </c>
       <c r="G6" s="4">
-        <v>-2.387711561801353</v>
+        <v>-2.718127777170887</v>
       </c>
       <c r="H6" s="3">
-        <v>0.2685920287184285</v>
+        <v>2.447961910962637</v>
       </c>
       <c r="I6" s="3">
-        <v>1.434256670907556</v>
+        <v>1.842519342127739</v>
       </c>
       <c r="J6" s="3">
-        <v>0.001923432145063317</v>
+        <v>1.184317867246584</v>
       </c>
       <c r="K6" s="3">
-        <v>0.001673342276644788</v>
+        <v>0.8857021484952906</v>
       </c>
       <c r="L6" s="4">
-        <v>-0.7925797770729326</v>
+        <v>-1.194669716913799</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -595,34 +568,34 @@
         <v>17</v>
       </c>
       <c r="C7" s="3">
-        <v>1.498182020677485</v>
+        <v>4.607520676971699</v>
       </c>
       <c r="D7" s="3">
-        <v>2.159827301841561</v>
+        <v>2.95218228500657</v>
       </c>
       <c r="E7" s="3">
-        <v>0.5705774189878049</v>
+        <v>1.470670481863116</v>
       </c>
       <c r="F7" s="3">
-        <v>0.5858206695170158</v>
+        <v>1.875702623187282</v>
       </c>
       <c r="G7" s="4">
-        <v>-2.387711561801353</v>
+        <v>-3.168174268243418</v>
       </c>
       <c r="H7" s="3">
-        <v>0.2685920287184285</v>
+        <v>1.736778935103533</v>
       </c>
       <c r="I7" s="3">
-        <v>1.434256670907556</v>
+        <v>1.919344040345027</v>
       </c>
       <c r="J7" s="3">
-        <v>0.001923432145063317</v>
+        <v>0.7663793310894792</v>
       </c>
       <c r="K7" s="3">
-        <v>0.001673342276644788</v>
+        <v>0.6109521617000697</v>
       </c>
       <c r="L7" s="4">
-        <v>-0.7925797770729326</v>
+        <v>-1.555385973566104</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -630,37 +603,37 @@
         <v>18</v>
       </c>
       <c r="B9" s="5">
-        <v>6.666666666666667</v>
+        <v>18</v>
       </c>
       <c r="C9" s="3">
-        <v>-0.8953936574506161</v>
+        <v>12.3427948654834</v>
       </c>
       <c r="D9" s="3">
-        <v>5.455447255899807</v>
+        <v>5.455447255899808</v>
       </c>
       <c r="E9" s="3">
-        <v>-0.2102087129701995</v>
+        <v>2.216391325847431</v>
       </c>
       <c r="F9" s="3">
-        <v>-0.2214845565172524</v>
+        <v>3.02276400639657</v>
       </c>
       <c r="G9" s="4">
-        <v>-13.13505190977091</v>
+        <v>-4.252113952654735</v>
       </c>
       <c r="H9" s="3">
-        <v>-1.677394184165693</v>
+        <v>-7.286060064230537</v>
       </c>
       <c r="I9" s="3">
-        <v>5.925084500669564</v>
+        <v>3.444528222728684</v>
       </c>
       <c r="J9" s="3">
-        <v>-0.3279662116682777</v>
+        <v>-2.19243185401495</v>
       </c>
       <c r="K9" s="3">
-        <v>-0.3532386751384517</v>
+        <v>-1.458702542533131</v>
       </c>
       <c r="L9" s="4">
-        <v>-5.32096900656126</v>
+        <v>-6.524986051795311</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -668,37 +641,37 @@
         <v>19</v>
       </c>
       <c r="B10" s="5">
-        <v>6.666666666666667</v>
+        <v>13</v>
       </c>
       <c r="C10" s="3">
-        <v>-2.851214946804337</v>
+        <v>-0.8953936574506161</v>
       </c>
       <c r="D10" s="3">
-        <v>5.45544725589981</v>
+        <v>5.455447255899807</v>
       </c>
       <c r="E10" s="3">
-        <v>-0.5687166771409815</v>
+        <v>-0.2102087129701995</v>
       </c>
       <c r="F10" s="3">
-        <v>-0.5200972081214207</v>
+        <v>-0.2214845565172524</v>
       </c>
       <c r="G10" s="4">
-        <v>-14.26826671866541</v>
+        <v>-13.13505190977091</v>
       </c>
       <c r="H10" s="3">
-        <v>2.613682116821114</v>
+        <v>-1.677394184165693</v>
       </c>
       <c r="I10" s="3">
-        <v>4.022215265623042</v>
+        <v>5.925084500669564</v>
       </c>
       <c r="J10" s="3">
-        <v>0.5837203203802417</v>
+        <v>-0.3279662116682777</v>
       </c>
       <c r="K10" s="3">
-        <v>0.8223133379612338</v>
+        <v>-0.3532386751384517</v>
       </c>
       <c r="L10" s="4">
-        <v>-2.373536470462012</v>
+        <v>-5.32096900656126</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -706,37 +679,37 @@
         <v>20</v>
       </c>
       <c r="B11" s="5">
-        <v>6.666666666666667</v>
+        <v>21</v>
       </c>
       <c r="C11" s="3">
-        <v>-5.965538186665031</v>
+        <v>-1.325582143002446</v>
       </c>
       <c r="D11" s="3">
-        <v>5.455447255899808</v>
+        <v>5.45544725589981</v>
       </c>
       <c r="E11" s="3">
-        <v>-1.139581556549852</v>
+        <v>-0.2890635648957865</v>
       </c>
       <c r="F11" s="3">
-        <v>-0.991336040866307</v>
+        <v>-0.274300806564952</v>
       </c>
       <c r="G11" s="4">
-        <v>-17.79469476250196</v>
+        <v>-7.616875746354324</v>
       </c>
       <c r="H11" s="3">
-        <v>1.689886501027127</v>
+        <v>8.825704130252831</v>
       </c>
       <c r="I11" s="3">
-        <v>6.547163571721454</v>
+        <v>5.7733059195707</v>
       </c>
       <c r="J11" s="3">
-        <v>0.2175068870807768</v>
+        <v>1.482663644741695</v>
       </c>
       <c r="K11" s="3">
-        <v>0.3103767224940888</v>
+        <v>2.768262178174099</v>
       </c>
       <c r="L11" s="4">
-        <v>-6.029914714267914</v>
+        <v>-2.391322032338505</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -744,37 +717,37 @@
         <v>21</v>
       </c>
       <c r="B12" s="5">
-        <v>6.666666666666667</v>
+        <v>29</v>
       </c>
       <c r="C12" s="3">
-        <v>-3.381520856782139</v>
+        <v>8.624558393084204</v>
       </c>
       <c r="D12" s="3">
         <v>5.45544725589981</v>
       </c>
       <c r="E12" s="3">
-        <v>-0.6659233560992102</v>
+        <v>1.534827322386836</v>
       </c>
       <c r="F12" s="3">
-        <v>-0.5573742325437002</v>
+        <v>1.676952332716793</v>
       </c>
       <c r="G12" s="4">
-        <v>-12.74098237107393</v>
+        <v>-4.403278743302941</v>
       </c>
       <c r="H12" s="3">
-        <v>-10.28222507670823</v>
+        <v>-1.974309814725583</v>
       </c>
       <c r="I12" s="3">
-        <v>7.398203870187875</v>
+        <v>6.276784652174086</v>
       </c>
       <c r="J12" s="3">
-        <v>-1.425759359315101</v>
+        <v>-0.3568934211058204</v>
       </c>
       <c r="K12" s="3">
-        <v>-1.059064871216358</v>
+        <v>-0.192981836204243</v>
       </c>
       <c r="L12" s="4">
-        <v>-10.59027475909533</v>
+        <v>-8.211992932318813</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -782,37 +755,37 @@
         <v>22</v>
       </c>
       <c r="B13" s="5">
-        <v>6.666666666666667</v>
+        <v>5</v>
       </c>
       <c r="C13" s="3">
-        <v>1.124111705374742</v>
+        <v>2.750816417701518</v>
       </c>
       <c r="D13" s="3">
-        <v>5.455447255899812</v>
+        <v>5.45544725589981</v>
       </c>
       <c r="E13" s="3">
-        <v>0.159972734690459</v>
+        <v>0.4581526337936117</v>
       </c>
       <c r="F13" s="3">
-        <v>0.1568119198868004</v>
+        <v>0.5224165853963869</v>
       </c>
       <c r="G13" s="4">
-        <v>-9.327602305081884</v>
+        <v>-5.010994841559702</v>
       </c>
       <c r="H13" s="3">
-        <v>13.33253767466478</v>
+        <v>3.855795457756028</v>
       </c>
       <c r="I13" s="3">
-        <v>6.211044251361618</v>
+        <v>6.341625464845499</v>
       </c>
       <c r="J13" s="3">
-        <v>2.10378542037708</v>
+        <v>0.5660949458973067</v>
       </c>
       <c r="K13" s="3">
-        <v>3.162634574236533</v>
+        <v>0.4704505562580215</v>
       </c>
       <c r="L13" s="4">
-        <v>-1.896768227337409</v>
+        <v>-4.244086245079648</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -820,448 +793,106 @@
         <v>23</v>
       </c>
       <c r="B14" s="5">
-        <v>6.666666666666667</v>
+        <v>14</v>
       </c>
       <c r="C14" s="3">
-        <v>-0.8638611059334722</v>
+        <v>1.124111705374742</v>
       </c>
       <c r="D14" s="3">
-        <v>5.455447255899808</v>
+        <v>5.455447255899812</v>
       </c>
       <c r="E14" s="3">
-        <v>-0.2044287008029032</v>
+        <v>0.159972734690459</v>
       </c>
       <c r="F14" s="3">
-        <v>-0.1875156622265121</v>
+        <v>0.1568119198868004</v>
       </c>
       <c r="G14" s="4">
-        <v>-11.35573644239502</v>
+        <v>-9.327602305081884</v>
       </c>
       <c r="H14" s="3">
-        <v>-5.772347927436206</v>
+        <v>13.33253767466478</v>
       </c>
       <c r="I14" s="3">
-        <v>3.170272036101318</v>
+        <v>6.211044251361618</v>
       </c>
       <c r="J14" s="3">
-        <v>-1.904625594273944</v>
+        <v>2.10378542037708</v>
       </c>
       <c r="K14" s="3">
-        <v>-1.466347865393777</v>
+        <v>3.162634574236533</v>
       </c>
       <c r="L14" s="4">
-        <v>-4.216008662377158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="5">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="C15" s="3">
-        <v>5.919720611725077</v>
-      </c>
-      <c r="D15" s="3">
-        <v>5.45544725589981</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1.039022367360651</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1.346431398388805</v>
-      </c>
-      <c r="G15" s="4">
-        <v>-3.434277666321228</v>
-      </c>
-      <c r="H15" s="3">
-        <v>-6.527206846159972</v>
-      </c>
-      <c r="I15" s="3">
-        <v>5.047657620793391</v>
-      </c>
-      <c r="J15" s="3">
-        <v>-1.345780694694894</v>
-      </c>
-      <c r="K15" s="3">
-        <v>-1.154346434824434</v>
-      </c>
-      <c r="L15" s="4">
-        <v>-6.961835367409186</v>
+        <v>-1.896768227337409</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="5">
-        <v>6.666666666666667</v>
+        <v>24</v>
       </c>
       <c r="C16" s="3">
-        <v>-1.325582143002446</v>
+        <v>18.27460640775258</v>
       </c>
       <c r="D16" s="3">
-        <v>5.45544725589981</v>
+        <v>5.325147885270417</v>
       </c>
       <c r="E16" s="3">
-        <v>-0.2890635648957865</v>
+        <v>3.381835295923381</v>
       </c>
       <c r="F16" s="3">
-        <v>-0.274300806564952</v>
+        <v>6.14029371006789</v>
       </c>
       <c r="G16" s="4">
-        <v>-7.616875746354324</v>
+        <v>-1.640000000000008</v>
       </c>
       <c r="H16" s="3">
-        <v>8.825704130252831</v>
+        <v>6.981712890444358</v>
       </c>
       <c r="I16" s="3">
-        <v>5.7733059195707</v>
+        <v>2.118228426460816</v>
       </c>
       <c r="J16" s="3">
-        <v>1.482663644741695</v>
+        <v>3.170517151604876</v>
       </c>
       <c r="K16" s="3">
-        <v>2.768262178174099</v>
+        <v>11.32193498981717</v>
       </c>
       <c r="L16" s="4">
-        <v>-2.391322032338505</v>
+        <v>-0.219999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="5">
-        <v>6.666666666666667</v>
+        <v>25</v>
       </c>
       <c r="C17" s="3">
-        <v>12.82699936227958</v>
+        <v>5.247339504803517</v>
       </c>
       <c r="D17" s="3">
-        <v>5.45544725589981</v>
+        <v>4.569459304264929</v>
       </c>
       <c r="E17" s="3">
-        <v>2.305147476183691</v>
+        <v>1.090174097145513</v>
       </c>
       <c r="F17" s="3">
-        <v>4.031987941882466</v>
+        <v>0.9657068649683166</v>
       </c>
       <c r="G17" s="4">
-        <v>-4.467872615581459</v>
+        <v>-3.339999999999987</v>
       </c>
       <c r="H17" s="3">
-        <v>-4.195647408363334</v>
+        <v>8.274499975525561</v>
       </c>
       <c r="I17" s="3">
-        <v>3.383205557736253</v>
+        <v>4.570149523447419</v>
       </c>
       <c r="J17" s="3">
-        <v>-1.318714061430516</v>
+        <v>1.752386131154637</v>
       </c>
       <c r="K17" s="3">
-        <v>-1.124566278180404</v>
+        <v>2.636591018324521</v>
       </c>
       <c r="L17" s="4">
-        <v>-4.902642451122818</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="5">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="C18" s="3">
-        <v>2.110448259006015</v>
-      </c>
-      <c r="D18" s="3">
-        <v>5.45544725589981</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0.3407712113991462</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0.3879654874154132</v>
-      </c>
-      <c r="G18" s="4">
-        <v>-5.44763355501785</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-0.5705444324554776</v>
-      </c>
-      <c r="I18" s="3">
-        <v>5.701398551030866</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-0.1466969478282809</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-0.133489595854549</v>
-      </c>
-      <c r="L18" s="4">
-        <v>-5.262226629485167</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="5">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="C19" s="3">
-        <v>1.63212727200257</v>
-      </c>
-      <c r="D19" s="3">
-        <v>5.455447255899811</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0.2530935262219752</v>
-      </c>
-      <c r="F19" s="3">
-        <v>0.3010012204600769</v>
-      </c>
-      <c r="G19" s="4">
-        <v>-6.220712846341825</v>
-      </c>
-      <c r="H19" s="3">
-        <v>5.60701181050085</v>
-      </c>
-      <c r="I19" s="3">
-        <v>5.058815040469893</v>
-      </c>
-      <c r="J19" s="3">
-        <v>1.05581612184647</v>
-      </c>
-      <c r="K19" s="3">
-        <v>1.375109595207268</v>
-      </c>
-      <c r="L19" s="4">
-        <v>-2.4736777757567</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="5">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="C20" s="3">
-        <v>4.314540215436913</v>
-      </c>
-      <c r="D20" s="3">
-        <v>5.45544725589981</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0.744787940558662</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0.7852456394944056</v>
-      </c>
-      <c r="G20" s="4">
-        <v>-5.109861482741818</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-2.543916211240382</v>
-      </c>
-      <c r="I20" s="3">
-        <v>5.920557349892845</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-0.4745751757010797</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-0.3937087150855405</v>
-      </c>
-      <c r="L20" s="4">
-        <v>-4.997182102368358</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="5">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="C21" s="3">
-        <v>8.423850400153455</v>
-      </c>
-      <c r="D21" s="3">
-        <v>5.455447255899811</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1.498036939579322</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1.691309803283069</v>
-      </c>
-      <c r="G21" s="4">
-        <v>-4.716237635813036</v>
-      </c>
-      <c r="H21" s="3">
-        <v>1.803388035400566</v>
-      </c>
-      <c r="I21" s="3">
-        <v>5.311039738760106</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0.2895016376635479</v>
-      </c>
-      <c r="K21" s="3">
-        <v>0.2281341126563914</v>
-      </c>
-      <c r="L21" s="4">
-        <v>-4.807922064168569</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="5">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="C22" s="3">
-        <v>-2.350745983204072</v>
-      </c>
-      <c r="D22" s="3">
-        <v>5.45544725589981</v>
-      </c>
-      <c r="E22" s="3">
-        <v>-0.4769792007940091</v>
-      </c>
-      <c r="F22" s="3">
-        <v>-0.4455235076622012</v>
-      </c>
-      <c r="G22" s="4">
-        <v>-13.14186754769434</v>
-      </c>
-      <c r="H22" s="3">
-        <v>3.391684246988902</v>
-      </c>
-      <c r="I22" s="3">
-        <v>4.712233996886236</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0.6633479822354064</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0.960662793023961</v>
-      </c>
-      <c r="L22" s="4">
-        <v>-2.769445044287977</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="5">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="C23" s="3">
-        <v>3.356033138241488</v>
-      </c>
-      <c r="D23" s="3">
-        <v>5.455447255899808</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0.5690906911427056</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0.4843224687471556</v>
-      </c>
-      <c r="G23" s="4">
-        <v>-7.769692220548297</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-1.327377915638495</v>
-      </c>
-      <c r="I23" s="3">
-        <v>4.708869920302339</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-0.3383425908842123</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-0.3324762823701682</v>
-      </c>
-      <c r="L23" s="4">
-        <v>-4.039572413768411</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="3">
-        <v>18.27460640775258</v>
-      </c>
-      <c r="D25" s="3">
-        <v>5.325147885270417</v>
-      </c>
-      <c r="E25" s="3">
-        <v>3.381835295923381</v>
-      </c>
-      <c r="F25" s="3">
-        <v>6.14029371006789</v>
-      </c>
-      <c r="G25" s="4">
-        <v>-1.640000000000008</v>
-      </c>
-      <c r="H25" s="3">
-        <v>6.981712890444358</v>
-      </c>
-      <c r="I25" s="3">
-        <v>2.118228426460816</v>
-      </c>
-      <c r="J25" s="3">
-        <v>3.170517151604876</v>
-      </c>
-      <c r="K25" s="3">
-        <v>11.32193498981717</v>
-      </c>
-      <c r="L25" s="4">
-        <v>-0.219999999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="3">
-        <v>5.247339504803517</v>
-      </c>
-      <c r="D26" s="3">
-        <v>4.569459304264929</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1.090174097145513</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0.9657068649683166</v>
-      </c>
-      <c r="G26" s="4">
-        <v>-3.339999999999987</v>
-      </c>
-      <c r="H26" s="3">
-        <v>8.274499975525561</v>
-      </c>
-      <c r="I26" s="3">
-        <v>4.570149523447419</v>
-      </c>
-      <c r="J26" s="3">
-        <v>1.752386131154637</v>
-      </c>
-      <c r="K26" s="3">
-        <v>2.636591018324521</v>
-      </c>
-      <c r="L26" s="4">
         <v>-1.100000000000012</v>
       </c>
     </row>

--- a/IS_2005-07_2008-07.xlsx
+++ b/IS_2005-07_2008-07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Vol-Adj Trend Analysis</t>
   </si>
@@ -70,22 +70,22 @@
     <t>User Weight</t>
   </si>
   <si>
-    <t>Meridian Strategies</t>
-  </si>
-  <si>
-    <t>Sentinel Global</t>
-  </si>
-  <si>
-    <t>Sentinel Advisors</t>
-  </si>
-  <si>
-    <t>Vista Capital</t>
-  </si>
-  <si>
-    <t>Axiom Holdings</t>
-  </si>
-  <si>
-    <t>Quantum Advisors</t>
+    <t>Forge Advisors</t>
+  </si>
+  <si>
+    <t>Crescent Group</t>
+  </si>
+  <si>
+    <t>Vista Global</t>
+  </si>
+  <si>
+    <t>Forge Group</t>
+  </si>
+  <si>
+    <t>Adaptive Global</t>
+  </si>
+  <si>
+    <t>Adaptive LP</t>
   </si>
   <si>
     <t>EqualWeight_60</t>
@@ -533,34 +533,34 @@
         <v>16</v>
       </c>
       <c r="C6" s="3">
-        <v>3.771265572203131</v>
+        <v>-0.3785348850876669</v>
       </c>
       <c r="D6" s="3">
-        <v>2.85703895554428</v>
+        <v>2.8409709314909</v>
       </c>
       <c r="E6" s="3">
-        <v>1.226945902178641</v>
+        <v>-0.2268126756519981</v>
       </c>
       <c r="F6" s="3">
-        <v>1.806620019236472</v>
+        <v>-0.2130740705930198</v>
       </c>
       <c r="G6" s="4">
-        <v>-2.718127777170887</v>
+        <v>-5.349451854226828</v>
       </c>
       <c r="H6" s="3">
-        <v>2.447961910962637</v>
+        <v>-3.615924393137682</v>
       </c>
       <c r="I6" s="3">
-        <v>1.842519342127739</v>
+        <v>2.528112206147016</v>
       </c>
       <c r="J6" s="3">
-        <v>1.184317867246584</v>
+        <v>-1.535437278864703</v>
       </c>
       <c r="K6" s="3">
-        <v>0.8857021484952906</v>
+        <v>-1.136800703024587</v>
       </c>
       <c r="L6" s="4">
-        <v>-1.194669716913799</v>
+        <v>-3.753007383132034</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -568,34 +568,34 @@
         <v>17</v>
       </c>
       <c r="C7" s="3">
-        <v>4.607520676971699</v>
+        <v>-0.3168792914502561</v>
       </c>
       <c r="D7" s="3">
-        <v>2.95218228500657</v>
+        <v>2.942509298682781</v>
       </c>
       <c r="E7" s="3">
-        <v>1.470670481863116</v>
+        <v>-0.1980325516879222</v>
       </c>
       <c r="F7" s="3">
-        <v>1.875702623187282</v>
+        <v>-0.1989919255611703</v>
       </c>
       <c r="G7" s="4">
-        <v>-3.168174268243418</v>
+        <v>-4.721184679050827</v>
       </c>
       <c r="H7" s="3">
-        <v>1.736778935103533</v>
+        <v>-2.583161540300805</v>
       </c>
       <c r="I7" s="3">
-        <v>1.919344040345027</v>
+        <v>2.701070854979653</v>
       </c>
       <c r="J7" s="3">
-        <v>0.7663793310894792</v>
+        <v>-1.054764953085838</v>
       </c>
       <c r="K7" s="3">
-        <v>0.6109521617000697</v>
+        <v>-0.7945078021369302</v>
       </c>
       <c r="L7" s="4">
-        <v>-1.555385973566104</v>
+        <v>-2.756772817697395</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -603,37 +603,37 @@
         <v>18</v>
       </c>
       <c r="B9" s="5">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="3">
-        <v>12.3427948654834</v>
+        <v>-2.851214946804337</v>
       </c>
       <c r="D9" s="3">
-        <v>5.455447255899808</v>
+        <v>5.45544725589981</v>
       </c>
       <c r="E9" s="3">
-        <v>2.216391325847431</v>
+        <v>-0.5687166771409815</v>
       </c>
       <c r="F9" s="3">
-        <v>3.02276400639657</v>
+        <v>-0.5200972081214207</v>
       </c>
       <c r="G9" s="4">
-        <v>-4.252113952654735</v>
+        <v>-14.26826671866541</v>
       </c>
       <c r="H9" s="3">
-        <v>-7.286060064230537</v>
+        <v>2.613682116821114</v>
       </c>
       <c r="I9" s="3">
-        <v>3.444528222728684</v>
+        <v>4.022215265623042</v>
       </c>
       <c r="J9" s="3">
-        <v>-2.19243185401495</v>
+        <v>0.5837203203802417</v>
       </c>
       <c r="K9" s="3">
-        <v>-1.458702542533131</v>
+        <v>0.8223133379612338</v>
       </c>
       <c r="L9" s="4">
-        <v>-6.524986051795311</v>
+        <v>-2.373536470462012</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -641,37 +641,37 @@
         <v>19</v>
       </c>
       <c r="B10" s="5">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C10" s="3">
-        <v>-0.8953936574506161</v>
+        <v>3.884049280715574</v>
       </c>
       <c r="D10" s="3">
-        <v>5.455447255899807</v>
+        <v>5.45544725589981</v>
       </c>
       <c r="E10" s="3">
-        <v>-0.2102087129701995</v>
+        <v>0.6658776487845488</v>
       </c>
       <c r="F10" s="3">
-        <v>-0.2214845565172524</v>
+        <v>0.7211994954460942</v>
       </c>
       <c r="G10" s="4">
-        <v>-13.13505190977091</v>
+        <v>-6.629299688635159</v>
       </c>
       <c r="H10" s="3">
-        <v>-1.677394184165693</v>
+        <v>-8.713526365630075</v>
       </c>
       <c r="I10" s="3">
-        <v>5.925084500669564</v>
+        <v>5.387853580090061</v>
       </c>
       <c r="J10" s="3">
-        <v>-0.3279662116682777</v>
+        <v>-1.666593118295786</v>
       </c>
       <c r="K10" s="3">
-        <v>-0.3532386751384517</v>
+        <v>-1.486309745840762</v>
       </c>
       <c r="L10" s="4">
-        <v>-5.32096900656126</v>
+        <v>-8.211035154911572</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -679,37 +679,37 @@
         <v>20</v>
       </c>
       <c r="B11" s="5">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C11" s="3">
-        <v>-1.325582143002446</v>
+        <v>3.356033138241488</v>
       </c>
       <c r="D11" s="3">
-        <v>5.45544725589981</v>
+        <v>5.455447255899808</v>
       </c>
       <c r="E11" s="3">
-        <v>-0.2890635648957865</v>
+        <v>0.5690906911427056</v>
       </c>
       <c r="F11" s="3">
-        <v>-0.274300806564952</v>
+        <v>0.4843224687471556</v>
       </c>
       <c r="G11" s="4">
-        <v>-7.616875746354324</v>
+        <v>-7.769692220548297</v>
       </c>
       <c r="H11" s="3">
-        <v>8.825704130252831</v>
+        <v>-1.327377915638495</v>
       </c>
       <c r="I11" s="3">
-        <v>5.7733059195707</v>
+        <v>4.708869920302339</v>
       </c>
       <c r="J11" s="3">
-        <v>1.482663644741695</v>
+        <v>-0.3383425908842123</v>
       </c>
       <c r="K11" s="3">
-        <v>2.768262178174099</v>
+        <v>-0.3324762823701682</v>
       </c>
       <c r="L11" s="4">
-        <v>-2.391322032338505</v>
+        <v>-4.039572413768411</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -717,37 +717,37 @@
         <v>21</v>
       </c>
       <c r="B12" s="5">
-        <v>29</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="C12" s="3">
-        <v>8.624558393084204</v>
+        <v>-1.340449526914833</v>
       </c>
       <c r="D12" s="3">
         <v>5.45544725589981</v>
       </c>
       <c r="E12" s="3">
-        <v>1.534827322386836</v>
+        <v>-0.2917888013823658</v>
       </c>
       <c r="F12" s="3">
-        <v>1.676952332716793</v>
+        <v>-0.2582406241972316</v>
       </c>
       <c r="G12" s="4">
-        <v>-4.403278743302941</v>
+        <v>-9.756021348966915</v>
       </c>
       <c r="H12" s="3">
-        <v>-1.974309814725583</v>
+        <v>-7.140595322606947</v>
       </c>
       <c r="I12" s="3">
-        <v>6.276784652174086</v>
+        <v>4.132552664456281</v>
       </c>
       <c r="J12" s="3">
-        <v>-0.3568934211058204</v>
+        <v>-1.792216399234864</v>
       </c>
       <c r="K12" s="3">
-        <v>-0.192981836204243</v>
+        <v>-1.516744995537287</v>
       </c>
       <c r="L12" s="4">
-        <v>-8.211992932318813</v>
+        <v>-8.204845222930768</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -755,37 +755,37 @@
         <v>22</v>
       </c>
       <c r="B13" s="5">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C13" s="3">
-        <v>2.750816417701518</v>
+        <v>-2.350745983204072</v>
       </c>
       <c r="D13" s="3">
         <v>5.45544725589981</v>
       </c>
       <c r="E13" s="3">
-        <v>0.4581526337936117</v>
+        <v>-0.4769792007940091</v>
       </c>
       <c r="F13" s="3">
-        <v>0.5224165853963869</v>
+        <v>-0.4455235076622012</v>
       </c>
       <c r="G13" s="4">
-        <v>-5.010994841559702</v>
+        <v>-13.14186754769434</v>
       </c>
       <c r="H13" s="3">
-        <v>3.855795457756028</v>
+        <v>3.391684246988902</v>
       </c>
       <c r="I13" s="3">
-        <v>6.341625464845499</v>
+        <v>4.712233996886236</v>
       </c>
       <c r="J13" s="3">
-        <v>0.5660949458973067</v>
+        <v>0.6633479822354064</v>
       </c>
       <c r="K13" s="3">
-        <v>0.4704505562580215</v>
+        <v>0.960662793023961</v>
       </c>
       <c r="L13" s="4">
-        <v>-4.244086245079648</v>
+        <v>-2.769445044287977</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -793,37 +793,37 @@
         <v>23</v>
       </c>
       <c r="B14" s="5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="3">
-        <v>1.124111705374742</v>
+        <v>-3.381520856782139</v>
       </c>
       <c r="D14" s="3">
-        <v>5.455447255899812</v>
+        <v>5.45544725589981</v>
       </c>
       <c r="E14" s="3">
-        <v>0.159972734690459</v>
+        <v>-0.6659233560992102</v>
       </c>
       <c r="F14" s="3">
-        <v>0.1568119198868004</v>
+        <v>-0.5573742325437002</v>
       </c>
       <c r="G14" s="4">
-        <v>-9.327602305081884</v>
+        <v>-12.74098237107393</v>
       </c>
       <c r="H14" s="3">
-        <v>13.33253767466478</v>
+        <v>-10.28222507670823</v>
       </c>
       <c r="I14" s="3">
-        <v>6.211044251361618</v>
+        <v>7.398203870187875</v>
       </c>
       <c r="J14" s="3">
-        <v>2.10378542037708</v>
+        <v>-1.425759359315101</v>
       </c>
       <c r="K14" s="3">
-        <v>3.162634574236533</v>
+        <v>-1.059064871216358</v>
       </c>
       <c r="L14" s="4">
-        <v>-1.896768227337409</v>
+        <v>-10.59027475909533</v>
       </c>
     </row>
     <row r="16" spans="1:13">
